--- a/Code/Results/Cases/Case_000/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_000/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.965490764350779</v>
+        <v>0.9980342968504127</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974278</v>
+        <v>1.020227969265645</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264219</v>
+        <v>1.00234269268442</v>
       </c>
       <c r="F2">
-        <v>0.94041658423045</v>
+        <v>1.015770724134319</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.046782275101134</v>
       </c>
       <c r="J2">
-        <v>0.9887550190430504</v>
+        <v>1.020273961143927</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.031412509617071</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858099</v>
+        <v>1.013769486278824</v>
       </c>
       <c r="M2">
-        <v>0.9527735354147128</v>
+        <v>1.027014634443499</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.02172286719581</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029952583034311</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033281564413829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726542</v>
+        <v>1.004825848129952</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836426</v>
+        <v>1.024987077111014</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632367</v>
+        <v>1.008245117487965</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614442</v>
+        <v>1.020117966595953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.04870362624981</v>
       </c>
       <c r="J3">
-        <v>0.9980775158039464</v>
+        <v>1.025185814633747</v>
       </c>
       <c r="K3">
-        <v>1.010421066684089</v>
+        <v>1.035309922471374</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096958</v>
+        <v>1.018773576396161</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622391</v>
+        <v>1.030499746114025</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.026641696080983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032710850935052</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036034737809099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851462998</v>
+        <v>1.009085692487844</v>
       </c>
       <c r="D4">
-        <v>1.005228524489156</v>
+        <v>1.027974097629449</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860824</v>
+        <v>1.011947723393484</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189432</v>
+        <v>1.0228611408862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.049892112496764</v>
       </c>
       <c r="J4">
-        <v>1.003800998517012</v>
+        <v>1.028259806579122</v>
       </c>
       <c r="K4">
-        <v>1.015264252778431</v>
+        <v>1.037746227913402</v>
       </c>
       <c r="L4">
-        <v>1.000391854265675</v>
+        <v>1.021904057246477</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722118</v>
+        <v>1.032691264740112</v>
       </c>
       <c r="N4">
-        <v>1.00522651107249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029720053447512</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034445307860265</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037758335329352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.986858738835395</v>
+        <v>1.010860465115728</v>
       </c>
       <c r="D5">
-        <v>1.007455842516653</v>
+        <v>1.02922095230947</v>
       </c>
       <c r="E5">
-        <v>0.9926675865989939</v>
+        <v>1.013496114626757</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635562</v>
+        <v>1.024004762544206</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.050385349758661</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.029542504734472</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.038762958080233</v>
       </c>
       <c r="L5">
-        <v>1.002628475881026</v>
+        <v>1.023213751498289</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954487</v>
+        <v>1.033604292718157</v>
       </c>
       <c r="N5">
-        <v>1.007568806919561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.031004573181371</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035167914055625</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038484441739408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745863</v>
+        <v>1.011174354167958</v>
       </c>
       <c r="D6">
-        <v>1.007826403054638</v>
+        <v>1.029443916600213</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488187</v>
+        <v>1.013776903854914</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851103</v>
+        <v>1.024203495954631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224131</v>
+        <v>1.050474980873582</v>
       </c>
       <c r="J6">
-        <v>1.00652893432371</v>
+        <v>1.029773736564012</v>
       </c>
       <c r="K6">
-        <v>1.017571711774971</v>
+        <v>1.038947209148999</v>
       </c>
       <c r="L6">
-        <v>1.003000395017313</v>
+        <v>1.023454325624266</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486404</v>
+        <v>1.033764303679491</v>
       </c>
       <c r="N6">
-        <v>1.007958320860932</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.031236133386631</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035294552937739</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038623484279727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>1.009157878763058</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.028031265494132</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987652</v>
+        <v>1.012029831323298</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624469</v>
+        <v>1.02289738356868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.049919311533003</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.028324184982367</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.037799859398269</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.021982249600055</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927399</v>
+        <v>1.032724182413771</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029784523275475</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034471360212696</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03781642257104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387373</v>
+        <v>1.000422998057982</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524749</v>
+        <v>1.02190923803408</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857664</v>
+        <v>1.004444794149335</v>
       </c>
       <c r="F8">
-        <v>0.945487573691759</v>
+        <v>1.017282794957548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.047470227810798</v>
       </c>
       <c r="J8">
-        <v>0.991973959178115</v>
+        <v>1.022018937152989</v>
       </c>
       <c r="K8">
-        <v>1.005253905520325</v>
+        <v>1.032800392690884</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737374</v>
+        <v>1.015564892615661</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455068</v>
+        <v>1.028233640150378</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.023470321270956</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030917358042472</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034285978964663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9404921245538184</v>
+        <v>0.9838299771539669</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397518</v>
+        <v>1.010291247722008</v>
       </c>
       <c r="E9">
-        <v>0.9525488128689398</v>
+        <v>0.9900072044196317</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377845</v>
+        <v>1.006776813612214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.042674631510305</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523495</v>
+        <v>1.009966952910883</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107438</v>
+        <v>1.02321953441111</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112724</v>
+        <v>1.003264515415473</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590702</v>
+        <v>1.019760890331668</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011401221828846</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024211621336737</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02750830962907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767529</v>
+        <v>0.9723181722952661</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360321</v>
+        <v>1.002263909463432</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866866</v>
+        <v>0.9801160008376614</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765311</v>
+        <v>0.9997968719731501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.039296535362348</v>
       </c>
       <c r="J10">
-        <v>0.9500428733849612</v>
+        <v>1.001674821119869</v>
       </c>
       <c r="K10">
-        <v>0.9697299717892687</v>
+        <v>1.016592408280079</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703446</v>
+        <v>0.9948537937777644</v>
       </c>
       <c r="M10">
-        <v>0.8961056097433054</v>
+        <v>1.014169794928024</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003097314259567</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019839155359093</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022839413356037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683163</v>
+        <v>0.9705277986284097</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151988</v>
+        <v>1.001092198471613</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330548</v>
+        <v>0.9795222450953974</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241345</v>
+        <v>1.00038909227071</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.038989145004962</v>
       </c>
       <c r="J11">
-        <v>0.9412903571358251</v>
+        <v>1.001180217054234</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240271</v>
+        <v>1.015993546880684</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734405</v>
+        <v>0.9948409577526067</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924785</v>
+        <v>1.015303674609896</v>
       </c>
       <c r="N11">
-        <v>0.942627097410471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002602007799427</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021181608748392</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022449386757721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.903341897476608</v>
+        <v>0.9710029100469674</v>
       </c>
       <c r="D12">
-        <v>0.9431295511592346</v>
+        <v>1.001470170822472</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105188</v>
+        <v>0.9806197067019186</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019134</v>
+        <v>1.001846826566304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.039284038361803</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235843</v>
+        <v>1.002087278051734</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509768</v>
+        <v>1.016569258777887</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671008</v>
+        <v>0.9961278658058319</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933876</v>
+        <v>1.016938729620794</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003510356927585</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022806809282695</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022856446569387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294966</v>
+        <v>0.9732950087471437</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657292</v>
+        <v>1.003102440293322</v>
       </c>
       <c r="E13">
-        <v>0.921271405298777</v>
+        <v>0.9831452414563631</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436786</v>
+        <v>1.004103644712398</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041495</v>
+        <v>1.040086511864439</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065385</v>
+        <v>1.004177273411231</v>
       </c>
       <c r="K13">
-        <v>0.9600585862385058</v>
+        <v>1.018126607812662</v>
       </c>
       <c r="L13">
-        <v>0.938030362233786</v>
+        <v>0.9985574896464287</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124514</v>
+        <v>1.019108874184587</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005603320320219</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024803131659261</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023955045109004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.907150650842325</v>
+        <v>0.9756700848390257</v>
       </c>
       <c r="D14">
-        <v>0.946046214662892</v>
+        <v>1.004777848035159</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841677</v>
+        <v>0.9855059882995296</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152784</v>
+        <v>1.005998263165293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363597</v>
+        <v>1.040860224804681</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041599</v>
+        <v>1.00612840990464</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338601</v>
+        <v>1.019627071527975</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150498</v>
+        <v>1.00072385186049</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598238</v>
+        <v>1.020824762322153</v>
       </c>
       <c r="N14">
-        <v>0.9423486228738325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007557227651246</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026334701447065</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025017397503928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9089179155343103</v>
+        <v>0.9766890399037615</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969426</v>
+        <v>1.005493490962952</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184362</v>
+        <v>0.9864437308592338</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935057</v>
+        <v>1.006697998603396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500697</v>
+        <v>1.041176804988454</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591477</v>
+        <v>1.006907618658961</v>
       </c>
       <c r="K15">
-        <v>0.963309408284047</v>
+        <v>1.020241190380482</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475301</v>
+        <v>1.001552530203547</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695087</v>
+        <v>1.02142346443611</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008337542971375</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02684579976786</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025457561006672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247813</v>
+        <v>0.981023793764024</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822881</v>
+        <v>1.008510847687537</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9900205441728952</v>
       </c>
       <c r="F16">
-        <v>0.8800422117948178</v>
+        <v>1.009205213021962</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.042436497964476</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276595</v>
+        <v>1.009931801319519</v>
       </c>
       <c r="K16">
-        <v>0.97020534232955</v>
+        <v>1.022691886422416</v>
       </c>
       <c r="L16">
-        <v>0.949492607503976</v>
+        <v>1.004535133840101</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985034</v>
+        <v>1.023374034552506</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01136602031819</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028348437766935</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027193523185896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572892</v>
+        <v>0.9831433025220537</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128867</v>
+        <v>1.009975796202422</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944716</v>
+        <v>0.9915735396652405</v>
       </c>
       <c r="F17">
-        <v>0.887789109474971</v>
+        <v>1.010157380916862</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017533476314582</v>
+        <v>1.04300777484973</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270773</v>
+        <v>1.011265033981814</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575921</v>
+        <v>1.023811145572112</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957386</v>
+        <v>1.005730946195242</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834659</v>
+        <v>1.023989627906374</v>
       </c>
       <c r="N17">
-        <v>0.956828086736555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012701146323788</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028704746626986</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02798750722522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824692</v>
+        <v>0.9834017480067438</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599882</v>
+        <v>1.01012523344355</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653444</v>
+        <v>0.9913466192668643</v>
       </c>
       <c r="F18">
-        <v>0.8921762317659471</v>
+        <v>1.009640145389163</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664686</v>
+        <v>1.042983199082719</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593234</v>
+        <v>1.011106822759706</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313469</v>
+        <v>1.023771451365815</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929518</v>
+        <v>1.005316412022429</v>
       </c>
       <c r="M18">
-        <v>0.9081576818926549</v>
+        <v>1.023294526548452</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012542710423598</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027914880964075</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027947675655586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336238</v>
+        <v>0.981940469624128</v>
       </c>
       <c r="D19">
-        <v>0.9630345489532575</v>
+        <v>1.009065968647237</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9894995744642792</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>1.007676678029155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.04241271711888</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644658</v>
+        <v>1.009564812533685</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573777</v>
+        <v>1.022666311329779</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>1.003436522840021</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214265</v>
+        <v>1.021300365010519</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010998510366186</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026007969484761</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027172763870867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001784</v>
+        <v>0.9755030342653198</v>
       </c>
       <c r="D20">
-        <v>0.9590908493919788</v>
+        <v>1.004498249179648</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933064</v>
+        <v>0.9829224150741076</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610739</v>
+        <v>1.001703062901288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01730960482155</v>
+        <v>1.040254977949103</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820768</v>
+        <v>1.004012063854953</v>
       </c>
       <c r="K20">
-        <v>0.973893313364306</v>
+        <v>1.018462460782616</v>
       </c>
       <c r="L20">
-        <v>0.953658158563054</v>
+        <v>0.9972723505243898</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333097</v>
+        <v>1.015716031959096</v>
       </c>
       <c r="N20">
-        <v>0.9563133828895991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00543787614742</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021052077128908</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024204425267941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682178</v>
+        <v>0.9660322925268648</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357419</v>
+        <v>0.9978884357112571</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112114</v>
+        <v>0.9746074984499101</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120871</v>
+        <v>0.9956723945727697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914045</v>
+        <v>1.037400751528685</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459218</v>
+        <v>0.9970221897044722</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250653</v>
+        <v>1.012909923056338</v>
       </c>
       <c r="L21">
-        <v>0.9396468154103991</v>
+        <v>0.9900864551886286</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164333</v>
+        <v>1.010736221228124</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9984380755738962</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017068996591379</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020281785252613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861765</v>
+        <v>0.9599724758478494</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194785</v>
+        <v>0.9936660442728837</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591711</v>
+        <v>0.9693143804275052</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776978</v>
+        <v>0.9919599863038138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.03556542043094</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189573</v>
+        <v>0.9925758973997004</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111847</v>
+        <v>1.009364031069234</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508508</v>
+        <v>0.9855192599423414</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866478</v>
+        <v>1.00769241792275</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9939854690240547</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014659944167829</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017760831068085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959795</v>
+        <v>0.9631470756200529</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987782</v>
+        <v>0.9958718579157801</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648737</v>
+        <v>0.9720614375993992</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687756</v>
+        <v>0.993913067512776</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.036522593768621</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431248</v>
+        <v>0.9948920919012861</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215627</v>
+        <v>1.011210820940264</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020652</v>
+        <v>0.9878812614800251</v>
       </c>
       <c r="M23">
-        <v>0.874816246080953</v>
+        <v>1.009290447419173</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840658</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9963049527875042</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015924723719003</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019056795469415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752833</v>
+        <v>0.9752437610463732</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114072</v>
+        <v>1.00430233368467</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235348</v>
+        <v>0.9825771743111142</v>
       </c>
       <c r="F24">
-        <v>0.8873415444452505</v>
+        <v>1.001393753205032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.040147545907646</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786424</v>
+        <v>1.003729251431278</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924834</v>
+        <v>1.018254314441634</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526846</v>
+        <v>0.9969173222465462</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904998</v>
+        <v>1.015396437104479</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362717</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005154662097665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020757359972507</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024029410392794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424589</v>
+        <v>0.9883551633266554</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531665</v>
+        <v>1.013465881755529</v>
       </c>
       <c r="E25">
-        <v>0.9594157005291378</v>
+        <v>0.9939805336729689</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893497</v>
+        <v>1.009606546978454</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.044007937314003</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477559</v>
+        <v>1.013280879880571</v>
       </c>
       <c r="K25">
-        <v>0.9907343132801962</v>
+        <v>1.025858692800031</v>
       </c>
       <c r="L25">
-        <v>0.9726784983089409</v>
+        <v>1.006673018389107</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929563</v>
+        <v>1.022057541857143</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264242</v>
+        <v>1.014719854954943</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.02602930693236</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029403318442948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_000/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_000/res_bus/vm_pu.xlsx
@@ -433,16 +433,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504127</v>
+        <v>0.9980342968504132</v>
       </c>
       <c r="D2">
-        <v>1.020227969265645</v>
+        <v>1.020227969265646</v>
       </c>
       <c r="E2">
-        <v>1.00234269268442</v>
+        <v>1.002342692684421</v>
       </c>
       <c r="F2">
-        <v>1.015770724134319</v>
+        <v>1.01577072413432</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -451,7 +451,7 @@
         <v>1.046782275101134</v>
       </c>
       <c r="J2">
-        <v>1.020273961143927</v>
+        <v>1.020273961143928</v>
       </c>
       <c r="K2">
         <v>1.031412509617071</v>
@@ -460,16 +460,16 @@
         <v>1.013769486278824</v>
       </c>
       <c r="M2">
-        <v>1.027014634443499</v>
+        <v>1.0270146344435</v>
       </c>
       <c r="N2">
-        <v>1.02172286719581</v>
+        <v>1.021722867195811</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034311</v>
+        <v>1.029952583034312</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
@@ -486,13 +486,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129952</v>
+        <v>1.004825848129953</v>
       </c>
       <c r="D3">
-        <v>1.024987077111014</v>
+        <v>1.024987077111015</v>
       </c>
       <c r="E3">
-        <v>1.008245117487965</v>
+        <v>1.008245117487966</v>
       </c>
       <c r="F3">
         <v>1.020117966595953</v>
@@ -504,19 +504,19 @@
         <v>1.04870362624981</v>
       </c>
       <c r="J3">
-        <v>1.025185814633747</v>
+        <v>1.025185814633748</v>
       </c>
       <c r="K3">
-        <v>1.035309922471374</v>
+        <v>1.035309922471375</v>
       </c>
       <c r="L3">
-        <v>1.018773576396161</v>
+        <v>1.018773576396162</v>
       </c>
       <c r="M3">
-        <v>1.030499746114025</v>
+        <v>1.030499746114026</v>
       </c>
       <c r="N3">
-        <v>1.026641696080983</v>
+        <v>1.026641696080985</v>
       </c>
       <c r="O3">
         <v>1.03</v>
@@ -539,13 +539,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487844</v>
+        <v>1.009085692487845</v>
       </c>
       <c r="D4">
-        <v>1.027974097629449</v>
+        <v>1.02797409762945</v>
       </c>
       <c r="E4">
-        <v>1.011947723393484</v>
+        <v>1.011947723393485</v>
       </c>
       <c r="F4">
         <v>1.0228611408862</v>
@@ -554,28 +554,28 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892112496764</v>
+        <v>1.049892112496765</v>
       </c>
       <c r="J4">
         <v>1.028259806579122</v>
       </c>
       <c r="K4">
-        <v>1.037746227913402</v>
+        <v>1.037746227913403</v>
       </c>
       <c r="L4">
-        <v>1.021904057246477</v>
+        <v>1.021904057246478</v>
       </c>
       <c r="M4">
         <v>1.032691264740112</v>
       </c>
       <c r="N4">
-        <v>1.029720053447512</v>
+        <v>1.029720053447513</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860265</v>
+        <v>1.034445307860266</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
@@ -592,16 +592,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115728</v>
+        <v>1.010860465115729</v>
       </c>
       <c r="D5">
-        <v>1.02922095230947</v>
+        <v>1.029220952309471</v>
       </c>
       <c r="E5">
         <v>1.013496114626757</v>
       </c>
       <c r="F5">
-        <v>1.024004762544206</v>
+        <v>1.024004762544205</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055625</v>
+        <v>1.035167914055624</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
@@ -672,7 +672,7 @@
         <v>1.023454325624266</v>
       </c>
       <c r="M6">
-        <v>1.033764303679491</v>
+        <v>1.03376430367949</v>
       </c>
       <c r="N6">
         <v>1.031236133386631</v>
@@ -681,7 +681,7 @@
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937739</v>
+        <v>1.035294552937738</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
@@ -698,13 +698,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763058</v>
+        <v>1.009157878763059</v>
       </c>
       <c r="D7">
-        <v>1.028031265494132</v>
+        <v>1.028031265494133</v>
       </c>
       <c r="E7">
-        <v>1.012029831323298</v>
+        <v>1.012029831323299</v>
       </c>
       <c r="F7">
         <v>1.02289738356868</v>
@@ -716,13 +716,13 @@
         <v>1.049919311533003</v>
       </c>
       <c r="J7">
-        <v>1.028324184982367</v>
+        <v>1.028324184982368</v>
       </c>
       <c r="K7">
-        <v>1.037799859398269</v>
+        <v>1.03779985939827</v>
       </c>
       <c r="L7">
-        <v>1.021982249600055</v>
+        <v>1.021982249600057</v>
       </c>
       <c r="M7">
         <v>1.032724182413771</v>
@@ -740,7 +740,7 @@
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03781642257104</v>
+        <v>1.037816422571041</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,13 +751,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057982</v>
+        <v>1.000422998057984</v>
       </c>
       <c r="D8">
-        <v>1.02190923803408</v>
+        <v>1.021909238034081</v>
       </c>
       <c r="E8">
-        <v>1.004444794149335</v>
+        <v>1.004444794149336</v>
       </c>
       <c r="F8">
         <v>1.017282794957548</v>
@@ -766,34 +766,34 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047470227810798</v>
+        <v>1.047470227810799</v>
       </c>
       <c r="J8">
-        <v>1.022018937152989</v>
+        <v>1.02201893715299</v>
       </c>
       <c r="K8">
-        <v>1.032800392690884</v>
+        <v>1.032800392690885</v>
       </c>
       <c r="L8">
-        <v>1.015564892615661</v>
+        <v>1.015564892615663</v>
       </c>
       <c r="M8">
         <v>1.028233640150378</v>
       </c>
       <c r="N8">
-        <v>1.023470321270956</v>
+        <v>1.023470321270958</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042472</v>
+        <v>1.030917358042473</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964663</v>
+        <v>1.034285978964664</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,16 +804,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539669</v>
+        <v>0.9838299771539655</v>
       </c>
       <c r="D9">
-        <v>1.010291247722008</v>
+        <v>1.010291247722007</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196317</v>
+        <v>0.9900072044196302</v>
       </c>
       <c r="F9">
-        <v>1.006776813612214</v>
+        <v>1.006776813612212</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -822,31 +822,31 @@
         <v>1.042674631510305</v>
       </c>
       <c r="J9">
-        <v>1.009966952910883</v>
+        <v>1.009966952910881</v>
       </c>
       <c r="K9">
-        <v>1.02321953441111</v>
+        <v>1.023219534411108</v>
       </c>
       <c r="L9">
-        <v>1.003264515415473</v>
+        <v>1.003264515415472</v>
       </c>
       <c r="M9">
-        <v>1.019760890331668</v>
+        <v>1.019760890331666</v>
       </c>
       <c r="N9">
-        <v>1.011401221828846</v>
+        <v>1.011401221828844</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336737</v>
+        <v>1.024211621336735</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02750830962907</v>
+        <v>1.027508309629069</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,16 +857,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723181722952661</v>
+        <v>0.972318172295267</v>
       </c>
       <c r="D10">
-        <v>1.002263909463432</v>
+        <v>1.002263909463433</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376614</v>
+        <v>0.9801160008376619</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731501</v>
+        <v>0.9997968719731504</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -875,19 +875,19 @@
         <v>1.039296535362348</v>
       </c>
       <c r="J10">
-        <v>1.001674821119869</v>
+        <v>1.00167482111987</v>
       </c>
       <c r="K10">
         <v>1.016592408280079</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777644</v>
+        <v>0.9948537937777649</v>
       </c>
       <c r="M10">
-        <v>1.014169794928024</v>
+        <v>1.014169794928025</v>
       </c>
       <c r="N10">
-        <v>1.003097314259567</v>
+        <v>1.003097314259568</v>
       </c>
       <c r="O10">
         <v>1.03</v>
@@ -910,43 +910,43 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284097</v>
+        <v>0.9705277986284085</v>
       </c>
       <c r="D11">
-        <v>1.001092198471613</v>
+        <v>1.001092198471612</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953974</v>
+        <v>0.9795222450953965</v>
       </c>
       <c r="F11">
-        <v>1.00038909227071</v>
+        <v>1.000389092270709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038989145004962</v>
+        <v>1.038989145004961</v>
       </c>
       <c r="J11">
-        <v>1.001180217054234</v>
+        <v>1.001180217054233</v>
       </c>
       <c r="K11">
-        <v>1.015993546880684</v>
+        <v>1.015993546880683</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526067</v>
+        <v>0.9948409577526057</v>
       </c>
       <c r="M11">
-        <v>1.015303674609896</v>
+        <v>1.015303674609895</v>
       </c>
       <c r="N11">
-        <v>1.002602007799427</v>
+        <v>1.002602007799426</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748392</v>
+        <v>1.021181608748391</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
@@ -963,16 +963,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710029100469674</v>
+        <v>0.971002910046967</v>
       </c>
       <c r="D12">
         <v>1.001470170822472</v>
       </c>
       <c r="E12">
-        <v>0.9806197067019186</v>
+        <v>0.980619706701918</v>
       </c>
       <c r="F12">
-        <v>1.001846826566304</v>
+        <v>1.001846826566303</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>1.039284038361803</v>
       </c>
       <c r="J12">
-        <v>1.002087278051734</v>
+        <v>1.002087278051733</v>
       </c>
       <c r="K12">
         <v>1.016569258777887</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058319</v>
+        <v>0.9961278658058315</v>
       </c>
       <c r="M12">
-        <v>1.016938729620794</v>
+        <v>1.016938729620793</v>
       </c>
       <c r="N12">
-        <v>1.003510356927585</v>
+        <v>1.003510356927584</v>
       </c>
       <c r="O12">
         <v>1.03</v>
@@ -1016,16 +1016,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9732950087471437</v>
+        <v>0.973295008747144</v>
       </c>
       <c r="D13">
         <v>1.003102440293322</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563631</v>
+        <v>0.9831452414563635</v>
       </c>
       <c r="F13">
-        <v>1.004103644712398</v>
+        <v>1.004103644712397</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1034,16 +1034,16 @@
         <v>1.040086511864439</v>
       </c>
       <c r="J13">
-        <v>1.004177273411231</v>
+        <v>1.004177273411232</v>
       </c>
       <c r="K13">
         <v>1.018126607812662</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464287</v>
+        <v>0.9985574896464293</v>
       </c>
       <c r="M13">
-        <v>1.019108874184587</v>
+        <v>1.019108874184586</v>
       </c>
       <c r="N13">
         <v>1.005603320320219</v>
@@ -1052,7 +1052,7 @@
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024803131659261</v>
+        <v>1.02480313165926</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
@@ -1069,13 +1069,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390257</v>
+        <v>0.9756700848390266</v>
       </c>
       <c r="D14">
-        <v>1.004777848035159</v>
+        <v>1.00477784803516</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995296</v>
+        <v>0.9855059882995306</v>
       </c>
       <c r="F14">
         <v>1.005998263165293</v>
@@ -1084,22 +1084,22 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040860224804681</v>
+        <v>1.040860224804682</v>
       </c>
       <c r="J14">
-        <v>1.00612840990464</v>
+        <v>1.006128409904641</v>
       </c>
       <c r="K14">
-        <v>1.019627071527975</v>
+        <v>1.019627071527976</v>
       </c>
       <c r="L14">
         <v>1.00072385186049</v>
       </c>
       <c r="M14">
-        <v>1.020824762322153</v>
+        <v>1.020824762322152</v>
       </c>
       <c r="N14">
-        <v>1.007557227651246</v>
+        <v>1.007557227651247</v>
       </c>
       <c r="O14">
         <v>1.03</v>
@@ -1111,7 +1111,7 @@
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503928</v>
+        <v>1.025017397503929</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,7 +1122,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037615</v>
+        <v>0.9766890399037614</v>
       </c>
       <c r="D15">
         <v>1.005493490962952</v>
@@ -1152,7 +1152,7 @@
         <v>1.02142346443611</v>
       </c>
       <c r="N15">
-        <v>1.008337542971375</v>
+        <v>1.008337542971374</v>
       </c>
       <c r="O15">
         <v>1.03</v>
@@ -1175,13 +1175,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.981023793764024</v>
+        <v>0.9810237937640245</v>
       </c>
       <c r="D16">
         <v>1.008510847687537</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728952</v>
+        <v>0.9900205441728958</v>
       </c>
       <c r="F16">
         <v>1.009205213021962</v>
@@ -1199,10 +1199,10 @@
         <v>1.022691886422416</v>
       </c>
       <c r="L16">
-        <v>1.004535133840101</v>
+        <v>1.004535133840102</v>
       </c>
       <c r="M16">
-        <v>1.023374034552506</v>
+        <v>1.023374034552505</v>
       </c>
       <c r="N16">
         <v>1.01136602031819</v>
@@ -1211,7 +1211,7 @@
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766935</v>
+        <v>1.028348437766934</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220537</v>
+        <v>0.9831433025220521</v>
       </c>
       <c r="D17">
-        <v>1.009975796202422</v>
+        <v>1.009975796202421</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652405</v>
+        <v>0.9915735396652389</v>
       </c>
       <c r="F17">
-        <v>1.010157380916862</v>
+        <v>1.01015738091686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04300777484973</v>
+        <v>1.043007774849729</v>
       </c>
       <c r="J17">
-        <v>1.011265033981814</v>
+        <v>1.011265033981812</v>
       </c>
       <c r="K17">
-        <v>1.023811145572112</v>
+        <v>1.023811145572111</v>
       </c>
       <c r="L17">
-        <v>1.005730946195242</v>
+        <v>1.00573094619524</v>
       </c>
       <c r="M17">
-        <v>1.023989627906374</v>
+        <v>1.023989627906372</v>
       </c>
       <c r="N17">
-        <v>1.012701146323788</v>
+        <v>1.012701146323787</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626986</v>
+        <v>1.028704746626985</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02798750722522</v>
+        <v>1.027987507225219</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,13 +1281,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067438</v>
+        <v>0.9834017480067445</v>
       </c>
       <c r="D18">
         <v>1.01012523344355</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668643</v>
+        <v>0.9913466192668645</v>
       </c>
       <c r="F18">
         <v>1.009640145389163</v>
@@ -1311,13 +1311,13 @@
         <v>1.023294526548452</v>
       </c>
       <c r="N18">
-        <v>1.012542710423598</v>
+        <v>1.012542710423599</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964075</v>
+        <v>1.027914880964076</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
@@ -1340,16 +1340,16 @@
         <v>1.009065968647237</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642792</v>
+        <v>0.9894995744642795</v>
       </c>
       <c r="F19">
-        <v>1.007676678029155</v>
+        <v>1.007676678029154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04241271711888</v>
+        <v>1.042412717118881</v>
       </c>
       <c r="J19">
         <v>1.009564812533685</v>
@@ -1361,22 +1361,22 @@
         <v>1.003436522840021</v>
       </c>
       <c r="M19">
-        <v>1.021300365010519</v>
+        <v>1.021300365010518</v>
       </c>
       <c r="N19">
-        <v>1.010998510366186</v>
+        <v>1.010998510366185</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026007969484761</v>
+        <v>1.02600796948476</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870867</v>
+        <v>1.027172763870868</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,13 +1387,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653198</v>
+        <v>0.9755030342653205</v>
       </c>
       <c r="D20">
-        <v>1.004498249179648</v>
+        <v>1.004498249179649</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741076</v>
+        <v>0.9829224150741084</v>
       </c>
       <c r="F20">
         <v>1.001703062901288</v>
@@ -1402,22 +1402,22 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040254977949103</v>
+        <v>1.040254977949104</v>
       </c>
       <c r="J20">
         <v>1.004012063854953</v>
       </c>
       <c r="K20">
-        <v>1.018462460782616</v>
+        <v>1.018462460782617</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243898</v>
+        <v>0.9972723505243904</v>
       </c>
       <c r="M20">
         <v>1.015716031959096</v>
       </c>
       <c r="N20">
-        <v>1.00543787614742</v>
+        <v>1.005437876147421</v>
       </c>
       <c r="O20">
         <v>1.03</v>
@@ -1429,7 +1429,7 @@
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267941</v>
+        <v>1.024204425267942</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,16 +1440,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268648</v>
+        <v>0.9660322925268653</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112571</v>
+        <v>0.9978884357112578</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499101</v>
+        <v>0.9746074984499109</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727697</v>
+        <v>0.9956723945727689</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1458,19 +1458,19 @@
         <v>1.037400751528685</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044722</v>
+        <v>0.9970221897044727</v>
       </c>
       <c r="K21">
-        <v>1.012909923056338</v>
+        <v>1.012909923056339</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886286</v>
+        <v>0.9900864551886294</v>
       </c>
       <c r="M21">
-        <v>1.010736221228124</v>
+        <v>1.010736221228123</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738962</v>
+        <v>0.9984380755738967</v>
       </c>
       <c r="O21">
         <v>1.03</v>
@@ -1482,7 +1482,7 @@
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252613</v>
+        <v>1.020281785252614</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,16 +1493,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478494</v>
+        <v>0.9599724758478506</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728837</v>
+        <v>0.9936660442728846</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275052</v>
+        <v>0.9693143804275064</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038138</v>
+        <v>0.9919599863038132</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1511,31 +1511,31 @@
         <v>1.03556542043094</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997004</v>
+        <v>0.9925758973997013</v>
       </c>
       <c r="K22">
-        <v>1.009364031069234</v>
+        <v>1.009364031069235</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423414</v>
+        <v>0.9855192599423426</v>
       </c>
       <c r="M22">
         <v>1.00769241792275</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240547</v>
+        <v>0.9939854690240557</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167829</v>
+        <v>1.014659944167828</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017760831068085</v>
+        <v>1.017760831068086</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1552,10 +1552,10 @@
         <v>0.9958718579157801</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993992</v>
+        <v>0.9720614375993994</v>
       </c>
       <c r="F23">
-        <v>0.993913067512776</v>
+        <v>0.9939130675127756</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1564,25 +1564,25 @@
         <v>1.036522593768621</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012861</v>
+        <v>0.9948920919012862</v>
       </c>
       <c r="K23">
         <v>1.011210820940264</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800251</v>
+        <v>0.9878812614800254</v>
       </c>
       <c r="M23">
         <v>1.009290447419173</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875042</v>
+        <v>0.9963049527875041</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719003</v>
+        <v>1.015924723719002</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
@@ -1599,16 +1599,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463732</v>
+        <v>0.9752437610463742</v>
       </c>
       <c r="D24">
         <v>1.00430233368467</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111142</v>
+        <v>0.9825771743111151</v>
       </c>
       <c r="F24">
-        <v>1.001393753205032</v>
+        <v>1.001393753205033</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1617,13 +1617,13 @@
         <v>1.040147545907646</v>
       </c>
       <c r="J24">
-        <v>1.003729251431278</v>
+        <v>1.003729251431279</v>
       </c>
       <c r="K24">
         <v>1.018254314441634</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465462</v>
+        <v>0.9969173222465472</v>
       </c>
       <c r="M24">
         <v>1.015396437104479</v>
@@ -1652,16 +1652,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266554</v>
+        <v>0.9883551633266556</v>
       </c>
       <c r="D25">
         <v>1.013465881755529</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729689</v>
+        <v>0.9939805336729691</v>
       </c>
       <c r="F25">
-        <v>1.009606546978454</v>
+        <v>1.009606546978452</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1673,13 +1673,13 @@
         <v>1.013280879880571</v>
       </c>
       <c r="K25">
-        <v>1.025858692800031</v>
+        <v>1.025858692800032</v>
       </c>
       <c r="L25">
         <v>1.006673018389107</v>
       </c>
       <c r="M25">
-        <v>1.022057541857143</v>
+        <v>1.022057541857141</v>
       </c>
       <c r="N25">
         <v>1.014719854954943</v>
@@ -1688,7 +1688,7 @@
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.02602930693236</v>
+        <v>1.026029306932358</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
